--- a/Diagrama de Gant Extendido.xlsx
+++ b/Diagrama de Gant Extendido.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erick\Desktop\TFG\TFG\Excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{935A1473-C530-4C05-BBEF-3468807750D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22416" windowHeight="11880"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -50,9 +56,6 @@
     <t>4.Duplicar el proceso</t>
   </si>
   <si>
-    <t>6. Securizar los puntos de acceso</t>
-  </si>
-  <si>
     <t>7.Gestión de fallos</t>
   </si>
   <si>
@@ -71,142 +74,7 @@
     <t>12.Documentación</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2 </t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>5.3</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
     <t>13.Crear un docker-compose</t>
-  </si>
-  <si>
-    <t>5.7</t>
-  </si>
-  <si>
-    <t>6.1</t>
-  </si>
-  <si>
-    <t>7.1</t>
-  </si>
-  <si>
-    <t>7.2</t>
-  </si>
-  <si>
-    <t>7.3</t>
-  </si>
-  <si>
-    <t>8.1</t>
-  </si>
-  <si>
-    <t>8.2</t>
-  </si>
-  <si>
-    <t>8.3</t>
-  </si>
-  <si>
-    <t>9.1</t>
-  </si>
-  <si>
-    <t>9.2</t>
-  </si>
-  <si>
-    <t>9.3</t>
-  </si>
-  <si>
-    <t>10.1</t>
-  </si>
-  <si>
-    <t>10.2</t>
-  </si>
-  <si>
-    <t>10.3</t>
-  </si>
-  <si>
-    <t>11.1</t>
-  </si>
-  <si>
-    <t>11.2</t>
-  </si>
-  <si>
-    <t>11.3</t>
-  </si>
-  <si>
-    <t>11.4</t>
-  </si>
-  <si>
-    <t>12.1</t>
-  </si>
-  <si>
-    <t>13.1</t>
-  </si>
-  <si>
-    <t>13.2</t>
   </si>
   <si>
     <t>1. Crea un proyecto</t>
@@ -214,11 +82,149 @@
   <si>
     <t>Inicio del proyecto:</t>
   </si>
+  <si>
+    <t>6. Proteger los puntos de acceso</t>
+  </si>
+  <si>
+    <t>1.1 Explorar API</t>
+  </si>
+  <si>
+    <t>1.2 Generar proyecto</t>
+  </si>
+  <si>
+    <t>1.3 Crear Cliente</t>
+  </si>
+  <si>
+    <t>2.1 Primer endpoint</t>
+  </si>
+  <si>
+    <t>3.1 Contenedor MySQL</t>
+  </si>
+  <si>
+    <t>3.4 Generar BDA</t>
+  </si>
+  <si>
+    <t>3.3 Conectar con el proyecto</t>
+  </si>
+  <si>
+    <t>3.2 Migraciones de Flyway</t>
+  </si>
+  <si>
+    <t>3.5 Factoría de SonarQube</t>
+  </si>
+  <si>
+    <t>3.6 Capa de repositorios</t>
+  </si>
+  <si>
+    <t>3.7 Incorporar al servicio</t>
+  </si>
+  <si>
+    <t>4.1 Explorar API</t>
+  </si>
+  <si>
+    <t>4.2 Crear cliente</t>
+  </si>
+  <si>
+    <t>4.4 Añadir factoría</t>
+  </si>
+  <si>
+    <t>4.3 Crear un endpoint</t>
+  </si>
+  <si>
+    <t>4.5 Crear el repositorio</t>
+  </si>
+  <si>
+    <t>4.6 Crear la tabla en BDA</t>
+  </si>
+  <si>
+    <t>4.7 Incorporar al servicio</t>
+  </si>
+  <si>
+    <t>5.1 Crear el servicio de Jgit</t>
+  </si>
+  <si>
+    <t>5.2 Carpetas temporales</t>
+  </si>
+  <si>
+    <t>5.5 Crear su repositorio</t>
+  </si>
+  <si>
+    <t>5.3 Crear endpoint</t>
+  </si>
+  <si>
+    <t>5.6 Crear su tabla</t>
+  </si>
+  <si>
+    <t>5.7 Incorporar al servicio</t>
+  </si>
+  <si>
+    <t>6.1 Exigir autentificación</t>
+  </si>
+  <si>
+    <t>7.1 Servicio de llamadas</t>
+  </si>
+  <si>
+    <t>7.2 Método de reintentos</t>
+  </si>
+  <si>
+    <t>8.1 Plugin</t>
+  </si>
+  <si>
+    <t>8.2 Conectar contenedores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.3 Ejecución automática </t>
+  </si>
+  <si>
+    <t>9.1 Contenedor de Metabase</t>
+  </si>
+  <si>
+    <t>9.2 Conectar contenedores</t>
+  </si>
+  <si>
+    <t>9.3 Dashboards y consultas</t>
+  </si>
+  <si>
+    <t>10.2 Test de los servicios</t>
+  </si>
+  <si>
+    <t>12.1 Documentar los endpoints</t>
+  </si>
+  <si>
+    <t>11.1 Crear la interfaz</t>
+  </si>
+  <si>
+    <t>11.2 Crear la clase contexto</t>
+  </si>
+  <si>
+    <t>11.3 Programar su ejecución</t>
+  </si>
+  <si>
+    <t>11.4 Primera implementación</t>
+  </si>
+  <si>
+    <t>13.1 Despliegue de imágenes</t>
+  </si>
+  <si>
+    <t>13.2 Conexiones entre imágenes</t>
+  </si>
+  <si>
+    <t>5.4 Crear factoría</t>
+  </si>
+  <si>
+    <t>7.3 Método de recuperación</t>
+  </si>
+  <si>
+    <t>10.1 Test de las factorías</t>
+  </si>
+  <si>
+    <t>10.3 Test de integración</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[$-C0A]dddd\,\ d&quot; de &quot;mmmm&quot; de &quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-C0A]d\-mmm\-yy;@"/>
@@ -774,26 +780,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:DE62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="E38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.21875" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.21875" style="15" customWidth="1"/>
     <col min="4" max="4" width="0.6640625" customWidth="1"/>
@@ -831,7 +837,7 @@
   <sheetData>
     <row r="2" spans="1:109" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="B2" s="26">
         <v>43787</v>
@@ -1739,7 +1745,7 @@
     </row>
     <row r="5" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="16"/>
@@ -1851,7 +1857,7 @@
     </row>
     <row r="6" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6" s="16">
         <v>43787</v>
@@ -1968,7 +1974,7 @@
     </row>
     <row r="7" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" s="16">
         <v>43790</v>
@@ -2085,7 +2091,7 @@
     </row>
     <row r="8" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8" s="16">
         <v>43791</v>
@@ -2313,7 +2319,7 @@
     </row>
     <row r="10" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B10" s="9">
         <v>43795</v>
@@ -2541,7 +2547,7 @@
     </row>
     <row r="12" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B12" s="9">
         <v>43797</v>
@@ -2657,7 +2663,7 @@
     </row>
     <row r="13" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B13" s="16">
         <v>43797</v>
@@ -2773,7 +2779,7 @@
     </row>
     <row r="14" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B14" s="9">
         <v>43798</v>
@@ -2889,7 +2895,7 @@
     </row>
     <row r="15" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="9">
         <v>43798</v>
@@ -3005,7 +3011,7 @@
     </row>
     <row r="16" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B16" s="9">
         <v>43801</v>
@@ -3121,7 +3127,7 @@
     </row>
     <row r="17" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B17" s="9">
         <v>43801</v>
@@ -3237,7 +3243,7 @@
     </row>
     <row r="18" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B18" s="9">
         <v>43801</v>
@@ -3465,7 +3471,7 @@
     </row>
     <row r="20" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B20" s="9">
         <v>43802</v>
@@ -3581,7 +3587,7 @@
     </row>
     <row r="21" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B21" s="9">
         <v>43802</v>
@@ -3697,7 +3703,7 @@
     </row>
     <row r="22" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B22" s="9">
         <v>43802</v>
@@ -3813,7 +3819,7 @@
     </row>
     <row r="23" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23" s="9">
         <v>43802</v>
@@ -3929,7 +3935,7 @@
     </row>
     <row r="24" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B24" s="9">
         <v>43802</v>
@@ -4045,7 +4051,7 @@
     </row>
     <row r="25" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B25" s="9">
         <v>43802</v>
@@ -4161,7 +4167,7 @@
     </row>
     <row r="26" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B26" s="9">
         <v>43802</v>
@@ -4389,7 +4395,7 @@
     </row>
     <row r="28" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28" s="9">
         <v>43803</v>
@@ -4505,7 +4511,7 @@
     </row>
     <row r="29" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29" s="9">
         <v>43804</v>
@@ -4621,7 +4627,7 @@
     </row>
     <row r="30" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B30" s="9">
         <v>43809</v>
@@ -4737,7 +4743,7 @@
     </row>
     <row r="31" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B31" s="9">
         <v>43810</v>
@@ -4853,7 +4859,7 @@
     </row>
     <row r="32" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32" s="9">
         <v>43810</v>
@@ -4969,7 +4975,7 @@
     </row>
     <row r="33" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33" s="9">
         <v>43810</v>
@@ -5085,7 +5091,7 @@
     </row>
     <row r="34" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B34" s="9">
         <v>43810</v>
@@ -5201,7 +5207,7 @@
     </row>
     <row r="35" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="16"/>
@@ -5313,7 +5319,7 @@
     </row>
     <row r="36" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36" s="9">
         <v>43811</v>
@@ -5429,7 +5435,7 @@
     </row>
     <row r="37" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="16"/>
@@ -5541,7 +5547,7 @@
     </row>
     <row r="38" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38" s="9">
         <v>43816</v>
@@ -5657,7 +5663,7 @@
     </row>
     <row r="39" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B39" s="9">
         <v>43816</v>
@@ -5773,7 +5779,7 @@
     </row>
     <row r="40" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B40" s="9">
         <v>43817</v>
@@ -5889,7 +5895,7 @@
     </row>
     <row r="41" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="16"/>
@@ -6349,7 +6355,7 @@
     </row>
     <row r="45" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="16"/>
@@ -6809,7 +6815,7 @@
     </row>
     <row r="49" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="16"/>
@@ -6921,7 +6927,7 @@
     </row>
     <row r="50" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B50" s="9">
         <v>43834</v>
@@ -7037,7 +7043,7 @@
     </row>
     <row r="51" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" s="9">
         <v>43844</v>
@@ -7153,7 +7159,7 @@
     </row>
     <row r="52" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B52" s="9">
         <v>43857</v>
@@ -7269,7 +7275,7 @@
     </row>
     <row r="53" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="16"/>
@@ -7381,7 +7387,7 @@
     </row>
     <row r="54" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="9">
         <v>43866</v>
@@ -7497,7 +7503,7 @@
     </row>
     <row r="55" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="9">
         <v>43872</v>
@@ -7613,7 +7619,7 @@
     </row>
     <row r="56" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="9">
         <v>43873</v>
@@ -7729,7 +7735,7 @@
     </row>
     <row r="57" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="9">
         <v>43874</v>
@@ -7845,7 +7851,7 @@
     </row>
     <row r="58" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="16"/>
@@ -7957,7 +7963,7 @@
     </row>
     <row r="59" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B59" s="9">
         <v>43878</v>
@@ -8073,7 +8079,7 @@
     </row>
     <row r="60" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="16"/>
@@ -8185,7 +8191,7 @@
     </row>
     <row r="61" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B61" s="9">
         <v>43880</v>
@@ -8301,7 +8307,7 @@
     </row>
     <row r="62" spans="1:109" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B62" s="9">
         <v>43881</v>
@@ -8417,22 +8423,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="BB2:BH2"/>
-    <mergeCell ref="BI2:BO2"/>
-    <mergeCell ref="E2:K2"/>
-    <mergeCell ref="L2:R2"/>
-    <mergeCell ref="S2:Y2"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="Z2:AF2"/>
-    <mergeCell ref="AG2:AM2"/>
-    <mergeCell ref="AN2:AT2"/>
-    <mergeCell ref="AU2:BA2"/>
     <mergeCell ref="CY2:DE2"/>
     <mergeCell ref="BP2:BV2"/>
     <mergeCell ref="BW2:CC2"/>
     <mergeCell ref="CD2:CJ2"/>
     <mergeCell ref="CK2:CQ2"/>
     <mergeCell ref="CR2:CX2"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="Z2:AF2"/>
+    <mergeCell ref="AG2:AM2"/>
+    <mergeCell ref="AN2:AT2"/>
+    <mergeCell ref="AU2:BA2"/>
+    <mergeCell ref="BB2:BH2"/>
+    <mergeCell ref="BI2:BO2"/>
+    <mergeCell ref="E2:K2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="S2:Y2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E5:I62 L5:P62 S5:W62 Z5:AD62 AG5:AK62 AN5:AR62 BW5:CA62 BP5:BT62 BI5:BM62 BC5:BF62 AU5:AU62 CD5:CH62 CR5:CV62 CK5:CO62 AX5:AY62 CY5:DC62">
